--- a/xlsx/country_comparison/radical_redistr_main_share.xlsx
+++ b/xlsx/country_comparison/radical_redistr_main_share.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
   </si>
   <si>
     <t xml:space="preserve">Saudi Arabia</t>
@@ -444,13 +447,16 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.683286671200591</v>
+        <v>0.693901017452085</v>
       </c>
       <c r="C2" t="n">
         <v>0.727267133682238</v>
@@ -480,18 +486,21 @@
         <v>0.691563351816597</v>
       </c>
       <c r="L2" t="n">
+        <v>0.75474525024331</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.817345461694808</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.622354397487081</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.623345952924007</v>
+        <v>0.642239736998293</v>
       </c>
       <c r="C3" t="n">
         <v>0.663594295554775</v>
@@ -521,18 +530,21 @@
         <v>0.55047661217434</v>
       </c>
       <c r="L3" t="n">
+        <v>0.766098373938282</v>
+      </c>
+      <c r="M3" t="n">
         <v>0.816920760799125</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>0.574114671968279</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.690994277929796</v>
+        <v>0.706072881772088</v>
       </c>
       <c r="C4" t="n">
         <v>0.780310385878786</v>
@@ -562,18 +574,21 @@
         <v>0.703723773724232</v>
       </c>
       <c r="L4" t="n">
+        <v>0.785034538455345</v>
+      </c>
+      <c r="M4" t="n">
         <v>0.930231790695484</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>0.560975861057092</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.451745267822287</v>
+        <v>0.451745267822288</v>
       </c>
       <c r="C5" t="n">
         <v>0.502618407568093</v>
@@ -597,16 +612,17 @@
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
-      <c r="M5" t="n">
+      <c r="M5"/>
+      <c r="N5" t="n">
         <v>0.401050394755232</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.595124310025602</v>
+        <v>0.592409982650417</v>
       </c>
       <c r="C6" t="n">
         <v>0.609896497471146</v>
@@ -636,15 +652,18 @@
         <v>0.583970917094862</v>
       </c>
       <c r="L6" t="n">
+        <v>0.575779296121639</v>
+      </c>
+      <c r="M6" t="n">
         <v>0.888820570273345</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>0.554373497970374</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" t="e">
         <v>#NUM!</v>
@@ -674,10 +693,11 @@
       <c r="K7" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="L7" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="L7"/>
       <c r="M7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N7" t="e">
         <v>#NUM!</v>
       </c>
     </row>

--- a/xlsx/country_comparison/radical_redistr_main_share.xlsx
+++ b/xlsx/country_comparison/radical_redistr_main_share.xlsx
@@ -64,8 +64,8 @@
 (Additional 15% tax over [$80k], 30% over [$120k], 45% over [$1M])</t>
   </si>
   <si>
-    <t xml:space="preserve">"Governments should actively cooperate to have
-all countries converge in terms of GDP per capita by the end of the century"</t>
+    <t xml:space="preserve">"Governments should actively cooperate to have all countries
+converge in terms of GDP per capita by the end of the century"</t>
   </si>
   <si>
     <t xml:space="preserve">Supports reparations for colonization and slavery in
@@ -456,7 +456,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.693901017452085</v>
+        <v>0.69404381490905</v>
       </c>
       <c r="C2" t="n">
         <v>0.727267133682238</v>
@@ -486,7 +486,7 @@
         <v>0.691563351816597</v>
       </c>
       <c r="L2" t="n">
-        <v>0.75474525024331</v>
+        <v>0.755738250031341</v>
       </c>
       <c r="M2" t="n">
         <v>0.817345461694808</v>
@@ -500,7 +500,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.642239736998293</v>
+        <v>0.642677782115776</v>
       </c>
       <c r="C3" t="n">
         <v>0.663594295554775</v>
@@ -530,7 +530,7 @@
         <v>0.55047661217434</v>
       </c>
       <c r="L3" t="n">
-        <v>0.766098373938282</v>
+        <v>0.769229629394801</v>
       </c>
       <c r="M3" t="n">
         <v>0.816920760799125</v>
@@ -544,7 +544,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.706072881772088</v>
+        <v>0.705883200070147</v>
       </c>
       <c r="C4" t="n">
         <v>0.780310385878786</v>
@@ -574,7 +574,7 @@
         <v>0.703723773724232</v>
       </c>
       <c r="L4" t="n">
-        <v>0.785034538455345</v>
+        <v>0.783687718511218</v>
       </c>
       <c r="M4" t="n">
         <v>0.930231790695484</v>
@@ -588,7 +588,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.451745267822288</v>
+        <v>0.451745267822287</v>
       </c>
       <c r="C5" t="n">
         <v>0.502618407568093</v>
@@ -622,7 +622,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.592409982650417</v>
+        <v>0.592833289390146</v>
       </c>
       <c r="C6" t="n">
         <v>0.609896497471146</v>
@@ -652,7 +652,7 @@
         <v>0.583970917094862</v>
       </c>
       <c r="L6" t="n">
-        <v>0.575779296121639</v>
+        <v>0.578703197664799</v>
       </c>
       <c r="M6" t="n">
         <v>0.888820570273345</v>

--- a/xlsx/country_comparison/radical_redistr_main_share.xlsx
+++ b/xlsx/country_comparison/radical_redistr_main_share.xlsx
@@ -456,7 +456,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.69404381490905</v>
+        <v>0.693996120467564</v>
       </c>
       <c r="C2" t="n">
         <v>0.727267133682238</v>
@@ -483,16 +483,16 @@
         <v>0.603572620182626</v>
       </c>
       <c r="K2" t="n">
-        <v>0.691563351816597</v>
+        <v>0.691681993781983</v>
       </c>
       <c r="L2" t="n">
-        <v>0.755738250031341</v>
+        <v>0.754855071318372</v>
       </c>
       <c r="M2" t="n">
         <v>0.817345461694808</v>
       </c>
       <c r="N2" t="n">
-        <v>0.622354397487081</v>
+        <v>0.622335501686223</v>
       </c>
     </row>
     <row r="3">
@@ -500,7 +500,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.642677782115776</v>
+        <v>0.641188431291775</v>
       </c>
       <c r="C3" t="n">
         <v>0.663594295554775</v>
@@ -527,16 +527,16 @@
         <v>0.420104611305175</v>
       </c>
       <c r="K3" t="n">
-        <v>0.55047661217434</v>
+        <v>0.550394111458431</v>
       </c>
       <c r="L3" t="n">
-        <v>0.769229629394801</v>
+        <v>0.756622372880961</v>
       </c>
       <c r="M3" t="n">
         <v>0.816920760799125</v>
       </c>
       <c r="N3" t="n">
-        <v>0.574114671968279</v>
+        <v>0.57421952327369</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.705883200070147</v>
+        <v>0.704965329416964</v>
       </c>
       <c r="C4" t="n">
         <v>0.780310385878786</v>
@@ -571,16 +571,16 @@
         <v>0.660378064524565</v>
       </c>
       <c r="K4" t="n">
-        <v>0.703723773724232</v>
+        <v>0.703727559204962</v>
       </c>
       <c r="L4" t="n">
-        <v>0.783687718511218</v>
+        <v>0.778963825426238</v>
       </c>
       <c r="M4" t="n">
         <v>0.930231790695484</v>
       </c>
       <c r="N4" t="n">
-        <v>0.560975861057092</v>
+        <v>0.561007628053552</v>
       </c>
     </row>
     <row r="5">
@@ -588,7 +588,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.451745267822287</v>
+        <v>0.451810364536854</v>
       </c>
       <c r="C5" t="n">
         <v>0.502618407568093</v>
@@ -614,7 +614,7 @@
       <c r="L5"/>
       <c r="M5"/>
       <c r="N5" t="n">
-        <v>0.401050394755232</v>
+        <v>0.401158464849325</v>
       </c>
     </row>
     <row r="6">
@@ -622,7 +622,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.592833289390146</v>
+        <v>0.592122368373113</v>
       </c>
       <c r="C6" t="n">
         <v>0.609896497471146</v>
@@ -649,16 +649,16 @@
         <v>0.538340937683521</v>
       </c>
       <c r="K6" t="n">
-        <v>0.583970917094862</v>
+        <v>0.584137117430032</v>
       </c>
       <c r="L6" t="n">
-        <v>0.578703197664799</v>
+        <v>0.573182308826315</v>
       </c>
       <c r="M6" t="n">
         <v>0.888820570273345</v>
       </c>
       <c r="N6" t="n">
-        <v>0.554373497970374</v>
+        <v>0.554219568199052</v>
       </c>
     </row>
     <row r="7">

--- a/xlsx/country_comparison/radical_redistr_main_share.xlsx
+++ b/xlsx/country_comparison/radical_redistr_main_share.xlsx
@@ -456,7 +456,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.693996120467564</v>
+        <v>0.693991148793208</v>
       </c>
       <c r="C2" t="n">
         <v>0.727267133682238</v>
@@ -486,7 +486,7 @@
         <v>0.691681993781983</v>
       </c>
       <c r="L2" t="n">
-        <v>0.754855071318372</v>
+        <v>0.754180914635801</v>
       </c>
       <c r="M2" t="n">
         <v>0.817345461694808</v>
@@ -500,7 +500,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.641188431291775</v>
+        <v>0.641501546421187</v>
       </c>
       <c r="C3" t="n">
         <v>0.663594295554775</v>
@@ -530,7 +530,7 @@
         <v>0.550394111458431</v>
       </c>
       <c r="L3" t="n">
-        <v>0.756622372880961</v>
+        <v>0.759131699735939</v>
       </c>
       <c r="M3" t="n">
         <v>0.816920760799125</v>
@@ -544,43 +544,43 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.704965329416964</v>
+        <v>0.704960018034767</v>
       </c>
       <c r="C4" t="n">
         <v>0.780310385878786</v>
       </c>
       <c r="D4" t="n">
-        <v>0.761687470249255</v>
+        <v>0.767261516731427</v>
       </c>
       <c r="E4" t="n">
-        <v>0.758489172765931</v>
+        <v>0.757541746745335</v>
       </c>
       <c r="F4" t="n">
-        <v>0.874100026122781</v>
+        <v>0.874984008964506</v>
       </c>
       <c r="G4" t="n">
-        <v>0.843596425922759</v>
+        <v>0.847206298409435</v>
       </c>
       <c r="H4" t="n">
-        <v>0.842976707711552</v>
+        <v>0.842339547896952</v>
       </c>
       <c r="I4" t="n">
-        <v>0.658792898536381</v>
+        <v>0.65799487387268</v>
       </c>
       <c r="J4" t="n">
-        <v>0.660378064524565</v>
+        <v>0.656332785129309</v>
       </c>
       <c r="K4" t="n">
-        <v>0.703727559204962</v>
+        <v>0.703874631903231</v>
       </c>
       <c r="L4" t="n">
-        <v>0.778963825426238</v>
+        <v>0.777883926828007</v>
       </c>
       <c r="M4" t="n">
-        <v>0.930231790695484</v>
+        <v>0.92816201896394</v>
       </c>
       <c r="N4" t="n">
-        <v>0.561007628053552</v>
+        <v>0.562406199574745</v>
       </c>
     </row>
     <row r="5">
@@ -594,27 +594,27 @@
         <v>0.502618407568093</v>
       </c>
       <c r="D5" t="n">
-        <v>0.437375697519216</v>
+        <v>0.438407527923474</v>
       </c>
       <c r="E5" t="n">
-        <v>0.43866370099415</v>
+        <v>0.439022530105316</v>
       </c>
       <c r="F5" t="n">
-        <v>0.696737544675098</v>
+        <v>0.693097173376912</v>
       </c>
       <c r="G5"/>
       <c r="H5" t="n">
-        <v>0.507401270303301</v>
+        <v>0.510821694970915</v>
       </c>
       <c r="I5" t="n">
-        <v>0.458595587653966</v>
+        <v>0.457151305629475</v>
       </c>
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
       <c r="M5"/>
       <c r="N5" t="n">
-        <v>0.401158464849325</v>
+        <v>0.400676565778138</v>
       </c>
     </row>
     <row r="6">
@@ -622,83 +622,87 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.592122368373113</v>
+        <v>0.591975291077805</v>
       </c>
       <c r="C6" t="n">
         <v>0.609896497471146</v>
       </c>
       <c r="D6" t="n">
-        <v>0.432040689538255</v>
+        <v>0.432966587857026</v>
       </c>
       <c r="E6" t="n">
-        <v>0.620111679474376</v>
+        <v>0.623667021276442</v>
       </c>
       <c r="F6" t="n">
-        <v>0.766975357539963</v>
+        <v>0.765866950290479</v>
       </c>
       <c r="G6" t="n">
-        <v>0.618309495622478</v>
+        <v>0.633729019702456</v>
       </c>
       <c r="H6" t="n">
-        <v>0.708786744917504</v>
+        <v>0.702512213956321</v>
       </c>
       <c r="I6" t="n">
-        <v>0.574354517212933</v>
+        <v>0.575699232924345</v>
       </c>
       <c r="J6" t="n">
-        <v>0.538340937683521</v>
+        <v>0.53058178548063</v>
       </c>
       <c r="K6" t="n">
-        <v>0.584137117430032</v>
+        <v>0.586217425103406</v>
       </c>
       <c r="L6" t="n">
-        <v>0.573182308826315</v>
+        <v>0.572781630922761</v>
       </c>
       <c r="M6" t="n">
-        <v>0.888820570273345</v>
+        <v>0.887006592651732</v>
       </c>
       <c r="N6" t="n">
-        <v>0.554219568199052</v>
+        <v>0.554098197443099</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J7"/>
-      <c r="K7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="L7"/>
-      <c r="M7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N7" t="e">
-        <v>#NUM!</v>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
